--- a/backend/pages/excel/excel-certificate-004-2rows-event.xlsx
+++ b/backend/pages/excel/excel-certificate-004-2rows-event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D3AA7-965B-42D2-BBE4-77D17A2473ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E55C4-9B76-45A0-AF00-11809B54F567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30B71CBD-2B3C-4293-B258-3ACE6F79B6E0}"/>
   </bookViews>
@@ -95,10 +95,10 @@
     <t>ได้รับรางวัลชนะเลิศ</t>
   </si>
   <si>
-    <t>นิทรรศการวันวิทยาศาสตร์  ประจำปี 2566</t>
-  </si>
-  <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ. 2566</t>
+  </si>
+  <si>
+    <t>นิทรรศการวันวิทยาศาสตร์</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +567,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
